--- a/static/execl/238.xlsx
+++ b/static/execl/238.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Staff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+  <si>
+    <t>Staff:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>81071910501</t>
@@ -94,6 +97,9 @@
     <t>81071910408</t>
   </si>
   <si>
+    <t>Test:</t>
+  </si>
+  <si>
     <t>81071910509</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>81071910611</t>
+  </si>
+  <si>
+    <t>CT1</t>
   </si>
   <si>
     <t>81071910411</t>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,7 +485,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -484,16 +502,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -507,10 +525,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -524,10 +542,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -541,10 +559,10 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -558,10 +576,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -575,10 +593,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,7 +610,10 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -606,7 +627,21 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
